--- a/backend/excel/src/main/resources/Book.xlsx
+++ b/backend/excel/src/main/resources/Book.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khan/Projects/etl-assistant/backend/excel/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C8A781A-6F55-FF49-A697-55C3B17FF6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE0BBFC-83F5-FB42-8489-7921A1167D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="2220" windowWidth="28240" windowHeight="17240" xr2:uid="{F6012DD2-34A2-1544-B41D-1404051CE509}"/>
+    <workbookView xWindow="3160" yWindow="2220" windowWidth="28240" windowHeight="17240" activeTab="2" xr2:uid="{F6012DD2-34A2-1544-B41D-1404051CE509}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -45,16 +47,42 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="204"/>
@@ -81,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9DBF33-0B60-BD42-8DB4-108EE50B56F4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,4 +501,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13F8872-5E65-B54F-B9BF-F8361EF92463}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BE0B56-CF12-5F44-B6D3-443327A132A1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>